--- a/docs/exit_code.xlsx
+++ b/docs/exit_code.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20378"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProgramData\kasini3000\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298772CE-E974-4EC1-82AD-DED92D991CB7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A57F2C-C5FE-443E-8F4F-FC192F71A350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6240" xr2:uid="{0651D056-BB3B-4B7B-AF6B-43FB3E6106D0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{0651D056-BB3B-4B7B-AF6B-43FB3E6106D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>功能用途</t>
   </si>
@@ -85,6 +85,14 @@
   </si>
   <si>
     <t>未安装poshrsjob模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未安装sshpass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sudo失败</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -501,7 +509,7 @@
   <dimension ref="B2:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -558,6 +566,22 @@
         <v>15</v>
       </c>
     </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>988</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>987</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>4</v>
